--- a/Misc. Stuff/Bug Report Sheet.xlsx
+++ b/Misc. Stuff/Bug Report Sheet.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Bugs</t>
   </si>
@@ -20,6 +20,51 @@
   </si>
   <si>
     <t>Date fixed</t>
+  </si>
+  <si>
+    <t>Attacking with a very fast move causes it to animate (and hit) twice, since it doesn't get cleared from the input queue in time.</t>
+  </si>
+  <si>
+    <t>Player move lists don't show up anymore</t>
+  </si>
+  <si>
+    <t>You can buttschoot while charging</t>
+  </si>
+  <si>
+    <t>Camera zoom was messed up when stage size was changed</t>
+  </si>
+  <si>
+    <t>Quickly tapping "E" during the cancel window of an attack forces the players to continue charging after the button is released</t>
+  </si>
+  <si>
+    <t>Players can crouch to cancel the recovery of a DP on hit/block, or cancel the animation and return to idle sooner than intended</t>
+  </si>
+  <si>
+    <t>TK'ing a special input(Such as 2369, 2147, 62369) lets you do grounded specials in the air</t>
+  </si>
+  <si>
+    <t>Players can cancel any part of a special move with a crouch</t>
+  </si>
+  <si>
+    <t>Players can occasionally get stuck crouching</t>
+  </si>
+  <si>
+    <t>Inputting 2366A while on the ground causes stuff to break</t>
+  </si>
+  <si>
+    <t>Cannot cancel standing moves(because cm.canMove == false)</t>
+  </si>
+  <si>
+    <t>The player number isn't displayed properly at the end of a round.</t>
+  </si>
+  <si>
+    <t>Attempting to start and end a charge(tapping E) while in hitstun causes the charge to begin after hitstun ends, and doesn't stop until E is pressed and released again.</t>
+  </si>
+  <si>
+    <t>Players can still attack inside the vine trap</t>
+  </si>
+  <si>
+    <t>Player number isn't displayed properly at the end of the round</t>
   </si>
   <si>
     <t>Bumping into someone while knocked down causes them to get back up immediately</t>
@@ -174,6 +219,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,120 +241,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="26.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>43157.0</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>43206.0</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3">
-        <v>43143.0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>43145.0</v>
-      </c>
-    </row>
-    <row r="4" ht="26.25">
+        <v>43206.0</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43147.0</v>
-      </c>
-    </row>
-    <row r="5" ht="30.75" customHeight="1">
-      <c r="A5" s="4" t="s">
+        <v>43202.0</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>43145.0</v>
-      </c>
-    </row>
-    <row r="6" ht="26.25">
+        <v>43196.0</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>43140.0</v>
+        <v>43185.0</v>
       </c>
       <c r="C6" s="3">
-        <v>43145.0</v>
-      </c>
-    </row>
-    <row r="7" ht="37.5">
+        <v>43202.0</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>43143.0</v>
-      </c>
-    </row>
-    <row r="8" ht="26.25">
+        <v>43185.0</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>43143.0</v>
-      </c>
-    </row>
-    <row r="9" ht="37.5">
+        <v>43185.0</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>43143.0</v>
-      </c>
-    </row>
-    <row r="10" ht="26.25">
+        <v>43182.0</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>43140.0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>43143.0</v>
-      </c>
-    </row>
-    <row r="11" ht="37.5">
+        <v>43182.0</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>43140.0</v>
+        <v>43180.0</v>
       </c>
       <c r="C11" s="3">
-        <v>43158.0</v>
-      </c>
-    </row>
-    <row r="12" ht="26.25">
+        <v>43180.0</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>43140.0</v>
+        <v>43174.0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>43180.0</v>
       </c>
     </row>
     <row r="13">
@@ -314,18 +351,21 @@
         <v>14</v>
       </c>
       <c r="B13" s="3">
-        <v>43125.0</v>
-      </c>
-    </row>
-    <row r="14" ht="37.5">
+        <v>43171.0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>43179.0</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3">
-        <v>43124.0</v>
+        <v>43171.0</v>
       </c>
       <c r="C14" s="3">
-        <v>43125.0</v>
+        <v>43171.0</v>
       </c>
     </row>
     <row r="15">
@@ -333,18 +373,21 @@
         <v>16</v>
       </c>
       <c r="B15" s="3">
-        <v>42754.0</v>
+        <v>43171.0</v>
       </c>
       <c r="C15" s="3">
-        <v>42754.0</v>
-      </c>
-    </row>
-    <row r="16" ht="26.25">
+        <v>43171.0</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="3">
-        <v>43118.0</v>
+        <v>43171.0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>43179.0</v>
       </c>
     </row>
     <row r="17">
@@ -352,18 +395,19 @@
         <v>18</v>
       </c>
       <c r="B17" s="3">
-        <v>43080.0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43116.0</v>
-      </c>
+        <v>43157.0</v>
+      </c>
+      <c r="C17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>43073.0</v>
+        <v>43143.0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>43145.0</v>
       </c>
     </row>
     <row r="19">
@@ -371,32 +415,32 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>43054.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C19" s="3">
-        <v>43137.0</v>
-      </c>
-    </row>
-    <row r="20" ht="26.25">
-      <c r="A20" s="1" t="s">
+        <v>43147.0</v>
+      </c>
+    </row>
+    <row r="20" ht="30.75" customHeight="1">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3">
-        <v>43054.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C20" s="3">
-        <v>43073.0</v>
-      </c>
-    </row>
-    <row r="21" ht="26.25">
+        <v>43145.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3">
-        <v>43054.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C21" s="3">
-        <v>43068.0</v>
+        <v>43145.0</v>
       </c>
     </row>
     <row r="22">
@@ -404,10 +448,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>43053.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C22" s="3">
-        <v>43053.0</v>
+        <v>43143.0</v>
       </c>
     </row>
     <row r="23">
@@ -415,43 +459,43 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>43050.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C23" s="3">
         <v>43143.0</v>
       </c>
     </row>
-    <row r="24" ht="26.25">
+    <row r="24">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>43046.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C24" s="3">
-        <v>43047.0</v>
-      </c>
-    </row>
-    <row r="25" ht="26.25">
+        <v>43143.0</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>43040.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C25" s="3">
-        <v>43042.0</v>
-      </c>
-    </row>
-    <row r="26" ht="26.25">
+        <v>43143.0</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="3">
-        <v>43039.0</v>
+        <v>43140.0</v>
       </c>
       <c r="C26" s="3">
-        <v>43073.0</v>
+        <v>43158.0</v>
       </c>
     </row>
     <row r="27">
@@ -459,10 +503,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>43027.0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>43070.0</v>
+        <v>43140.0</v>
       </c>
     </row>
     <row r="28">
@@ -470,32 +511,32 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>43027.0</v>
+        <v>43125.0</v>
       </c>
       <c r="C28" s="3">
-        <v>43045.0</v>
-      </c>
-    </row>
-    <row r="29" ht="26.25">
+        <v>43174.0</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="3">
-        <v>43025.0</v>
+        <v>43124.0</v>
       </c>
       <c r="C29" s="3">
-        <v>43050.0</v>
-      </c>
-    </row>
-    <row r="30" ht="26.25">
+        <v>43125.0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="3">
-        <v>43020.0</v>
+        <v>42754.0</v>
       </c>
       <c r="C30" s="3">
-        <v>43073.0</v>
+        <v>42754.0</v>
       </c>
     </row>
     <row r="31">
@@ -503,56 +544,173 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
+        <v>43118.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <v>43080.0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>43116.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="3">
+        <v>43073.0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>43202.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="3">
+        <v>43054.0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>43137.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="3">
+        <v>43054.0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>43073.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>43054.0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>43068.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="3">
+        <v>43053.0</v>
+      </c>
+      <c r="C37" s="3">
+        <v>43053.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="3">
+        <v>43050.0</v>
+      </c>
+      <c r="C38" s="3">
+        <v>43143.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="3">
+        <v>43046.0</v>
+      </c>
+      <c r="C39" s="3">
+        <v>43047.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="3">
+        <v>43040.0</v>
+      </c>
+      <c r="C40" s="3">
+        <v>43042.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="3">
+        <v>43039.0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>43073.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43027.0</v>
+      </c>
+      <c r="C42" s="3">
+        <v>43070.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3">
+        <v>43027.0</v>
+      </c>
+      <c r="C43" s="3">
+        <v>43045.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="3">
+        <v>43025.0</v>
+      </c>
+      <c r="C44" s="3">
+        <v>43050.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="3">
+        <v>43020.0</v>
+      </c>
+      <c r="C45" s="3">
+        <v>43073.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="3">
         <v>43019.0</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C46" s="3">
         <v>43019.0</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="5"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="5"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="5"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="5"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="5"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="5"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="5"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="5"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
@@ -3415,6 +3573,51 @@
     </row>
     <row r="1000">
       <c r="A1000" s="5"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="5"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="5"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="5"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="5"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="5"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="5"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="5"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="5"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="5"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="5"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="5"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="5"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
